--- a/ky/downloads/data-excel/3.1.1.xlsx
+++ b/ky/downloads/data-excel/3.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -736,11 +736,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -748,7 +746,7 @@
     <col min="4" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" customHeight="1">
+    <row r="1" spans="1:20" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -770,7 +768,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="45">
+    <row r="2" spans="1:20" ht="45">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -793,7 +791,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
@@ -813,8 +811,9 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -872,8 +871,11 @@
       <c r="S4" s="30">
         <v>2022</v>
       </c>
+      <c r="T4" s="30">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -931,8 +933,11 @@
       <c r="S5" s="23">
         <v>27.292394741221504</v>
       </c>
+      <c r="T5" s="23">
+        <v>22.606300992622124</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -990,8 +995,11 @@
       <c r="S6" s="24">
         <v>36.613942589338023</v>
       </c>
+      <c r="T6" s="24">
+        <v>13.621194578764559</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1049,8 +1057,11 @@
       <c r="S7" s="24">
         <v>14.18691257315127</v>
       </c>
+      <c r="T7" s="24">
+        <v>38.913029379337182</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1108,8 +1119,11 @@
       <c r="S8" s="24">
         <v>55.377118174770182</v>
       </c>
+      <c r="T8" s="24">
+        <v>19.215987701767872</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1167,8 +1181,11 @@
       <c r="S9" s="24">
         <v>42.247570764681029</v>
       </c>
+      <c r="T9" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="S10" s="24">
         <v>30.18817294468856</v>
       </c>
+      <c r="T10" s="24">
+        <v>19.9288256227758</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1285,8 +1305,11 @@
       <c r="S11" s="24">
         <v>97.03085581214826</v>
       </c>
+      <c r="T11" s="24">
+        <v>48.820179007323027</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1344,8 +1367,11 @@
       <c r="S12" s="24">
         <v>25.2</v>
       </c>
+      <c r="T12" s="24">
+        <v>18.458698661744346</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1403,8 +1429,11 @@
       <c r="S13" s="24">
         <v>21.849963583394029</v>
       </c>
+      <c r="T13" s="24">
+        <v>7.704160246533128</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1462,8 +1491,11 @@
       <c r="S14" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="T14" s="22">
+        <v>29.197080291970806</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="P15" s="25"/>
     </row>
   </sheetData>
